--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -430,6 +430,33 @@
   </si>
   <si>
     <t>ID mới : 868183033793220</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>28/01/2022</t>
+  </si>
+  <si>
+    <t>28/01/2023</t>
+  </si>
+  <si>
+    <t>28/01/2024</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>28/01/2026</t>
+  </si>
+  <si>
+    <t>28/01/2027</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M16"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2116,10 +2143,16 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="57">
+        <v>868183033792588</v>
+      </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="1"/>
@@ -2142,10 +2175,16 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="57">
+        <v>868183035898084</v>
+      </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="1"/>
@@ -2168,23 +2207,45 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="57">
+        <v>868183037864522</v>
+      </c>
       <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="58"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="P19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="17"/>
       <c r="U19" s="5" t="s">
@@ -2198,12 +2259,20 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="57">
+        <v>868183035921142</v>
+      </c>
       <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2229,12 +2298,20 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="57">
+        <v>868183033788618</v>
+      </c>
       <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="G21" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2253,19 +2330,27 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="57">
+        <v>867857039901694</v>
+      </c>
       <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
       <c r="J22" s="11"/>
@@ -2291,12 +2376,20 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="57">
+        <v>868183038089335</v>
+      </c>
       <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2317,12 +2410,20 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="57">
+        <v>867857039940932</v>
+      </c>
       <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2343,12 +2444,20 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="57">
+        <v>868183035946636</v>
+      </c>
       <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2373,12 +2482,20 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="57">
+        <v>868183038088402</v>
+      </c>
       <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="G26" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2404,12 +2521,20 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="57">
+        <v>868183035944045</v>
+      </c>
       <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="G27" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2428,19 +2553,27 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="57">
+        <v>868183038521964</v>
+      </c>
       <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2466,12 +2599,20 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="57">
+        <v>867857039906008</v>
+      </c>
       <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2497,12 +2638,20 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="57">
+        <v>868183038082256</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2528,12 +2677,20 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="57">
+        <v>860157040222173</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2559,12 +2716,20 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="57">
+        <v>868183037806747</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2590,12 +2755,20 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="57">
+        <v>868183038522681</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2621,12 +2794,20 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="57">
+        <v>868183038088972</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2738,7 +2919,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M23"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4555,12 +4736,20 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>132</v>
+      </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="57">
+        <v>868926033949253</v>
+      </c>
       <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4581,12 +4770,20 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="57">
+        <v>864811037235772</v>
+      </c>
       <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4611,12 +4808,20 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="57">
+        <v>868345035625755</v>
+      </c>
       <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="G26" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -4642,12 +4847,20 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="57">
+        <v>868926033976470</v>
+      </c>
       <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="G27" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -4673,12 +4886,20 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="57">
+        <v>866192037787064</v>
+      </c>
       <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4704,12 +4925,20 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="57">
+        <v>868926033943843</v>
+      </c>
       <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4735,12 +4964,20 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="57">
+        <v>868926033933786</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -688,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -724,9 +724,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,13 +864,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +900,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -937,15 +937,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,35 +1260,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M16"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="17" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="53" style="23" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="58" style="23" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="23"/>
-    <col min="21" max="21" width="30.5703125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" style="23" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="22"/>
+    <col min="21" max="21" width="30.5703125" style="22" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,21 +1329,21 @@
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1371,12 +1362,12 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
@@ -1420,7 +1411,7 @@
       <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="31"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="74" t="s">
         <v>40</v>
       </c>
@@ -1468,48 +1459,48 @@
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
       <c r="S5" s="83"/>
-      <c r="T5" s="31"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="74"/>
       <c r="V5" s="74"/>
     </row>
-    <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>44203</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>44209</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <v>868183035898084</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="61" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="61" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="57" t="s">
         <v>92</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1518,56 +1509,56 @@
       <c r="Q6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="55" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="54">
         <v>44203</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>44209</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>868183038526641</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="57" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="57" t="s">
         <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1576,54 +1567,54 @@
       <c r="Q7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="56" t="s">
+      <c r="R7" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <v>44203</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>44209</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>868183037864522</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="57" t="s">
         <v>92</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1632,58 +1623,58 @@
       <c r="Q8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>25</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="54">
         <v>44203</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <v>44209</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <v>860157040200864</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="57" t="s">
         <v>127</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1692,56 +1683,56 @@
       <c r="Q9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="55" t="s">
         <v>128</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>44203</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>44209</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <v>868183033827242</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="57" t="s">
         <v>79</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1750,56 +1741,56 @@
       <c r="Q10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="55" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <v>44203</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <v>44209</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <v>868183033781240</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="57" t="s">
         <v>79</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -1808,56 +1799,56 @@
       <c r="Q11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="55" t="s">
         <v>82</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <v>44203</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <v>44209</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>867857039924670</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="57" t="s">
         <v>79</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -1866,58 +1857,58 @@
       <c r="Q12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="55" t="s">
         <v>82</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="13"/>
+      <c r="U12" s="71" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <v>44203</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>44209</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="56">
         <v>868183033835195</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="57" t="s">
         <v>129</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="57" t="s">
         <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -1926,56 +1917,56 @@
       <c r="Q13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="55" t="s">
         <v>128</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="54">
         <v>44203</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>44209</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="56">
         <v>868183033881421</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="57" t="s">
         <v>83</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="57" t="s">
         <v>84</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -1984,12 +1975,12 @@
       <c r="Q14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="85"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1998,42 +1989,42 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="54">
         <v>44203</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>44209</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>860157040205707</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="57" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="57" t="s">
         <v>84</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -2042,12 +2033,12 @@
       <c r="Q15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="85"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2056,20 +2047,20 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="54">
         <v>44203</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>44209</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <v>868183035885776</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -2078,22 +2069,22 @@
       <c r="I16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="57" t="s">
         <v>129</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="57" t="s">
         <v>127</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2102,12 +2093,12 @@
       <c r="Q16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" s="55" t="s">
         <v>128</v>
       </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="86"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2116,27 +2107,27 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="58"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="58"/>
+      <c r="O17" s="57"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="56"/>
+      <c r="R17" s="55"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="18"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="17"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2144,10 +2135,10 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2155,14 +2146,14 @@
       <c r="L18" s="1"/>
       <c r="M18" s="11"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="58"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="19"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2170,10 +2161,10 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2181,16 +2172,16 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="17"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="20" t="s">
+      <c r="V19" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2200,10 +2191,10 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2211,12 +2202,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="58"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="17"/>
+      <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
         <v>18</v>
       </c>
@@ -2231,10 +2222,10 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2242,12 +2233,12 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="17"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2262,23 +2253,23 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="58"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="17"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
         <v>59</v>
       </c>
@@ -2293,25 +2284,25 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="58"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="19"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="18"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -2319,25 +2310,25 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="58"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2345,27 +2336,27 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="58"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="57"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="17"/>
+      <c r="T25" s="16"/>
       <c r="U25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="20" t="s">
+      <c r="V25" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2375,23 +2366,23 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="58"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="57"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="17"/>
+      <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
         <v>27</v>
       </c>
@@ -2406,23 +2397,23 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="58"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="57"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="17"/>
+      <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
         <v>35</v>
       </c>
@@ -2437,23 +2428,23 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="58"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="57"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="17"/>
+      <c r="T28" s="16"/>
       <c r="U28" s="4" t="s">
         <v>28</v>
       </c>
@@ -2468,23 +2459,23 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="58"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="57"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="17"/>
+      <c r="T29" s="16"/>
       <c r="U29" s="4" t="s">
         <v>61</v>
       </c>
@@ -2508,14 +2499,14 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="67"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="64"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="17"/>
+      <c r="T30" s="16"/>
       <c r="U30" s="4" t="s">
         <v>33</v>
       </c>
@@ -2539,14 +2530,14 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="64"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="17"/>
+      <c r="T31" s="16"/>
       <c r="U31" s="4" t="s">
         <v>23</v>
       </c>
@@ -2570,14 +2561,14 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="67"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="64"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="17"/>
+      <c r="T32" s="16"/>
       <c r="U32" s="4" t="s">
         <v>29</v>
       </c>
@@ -2601,14 +2592,14 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="67"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="64"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="17"/>
+      <c r="T33" s="16"/>
       <c r="U33" s="4" t="s">
         <v>56</v>
       </c>
@@ -2632,14 +2623,14 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="67"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="17"/>
+      <c r="T34" s="16"/>
       <c r="U34" s="4" t="s">
         <v>57</v>
       </c>
@@ -2663,14 +2654,14 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="67"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="64"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="17"/>
+      <c r="T35" s="16"/>
       <c r="U35" s="4" t="s">
         <v>39</v>
       </c>
@@ -2694,14 +2685,14 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="67"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="64"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="17"/>
+      <c r="T36" s="16"/>
       <c r="U36" s="4" t="s">
         <v>30</v>
       </c>
@@ -2725,15 +2716,15 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="67"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="64"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="21" t="s">
+      <c r="T37" s="16"/>
+      <c r="U37" s="20" t="s">
         <v>34</v>
       </c>
       <c r="V37" s="11">
@@ -2756,16 +2747,16 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="67"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="64"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="19"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="18"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -2782,16 +2773,16 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="67"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="64"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="19"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="18"/>
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -2808,15 +2799,15 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="67"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="64"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="21" t="s">
+      <c r="T40" s="16"/>
+      <c r="U40" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V40" s="11">
@@ -2839,15 +2830,15 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="67"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="64"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="21" t="s">
+      <c r="T41" s="16"/>
+      <c r="U41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="V41" s="11">
@@ -2870,16 +2861,16 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="67"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="64"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="19"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="18"/>
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -2896,16 +2887,16 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="67"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="64"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="19"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="18"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -2922,16 +2913,16 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="67"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="64"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="11"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="19"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="18"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -2948,19 +2939,19 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="67"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="64"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="11"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17">
+      <c r="T45" s="16"/>
+      <c r="U45" s="16">
         <f>COUNTIF(J6:J17,"*ACC*")</f>
         <v>0</v>
       </c>
-      <c r="V45" s="19"/>
+      <c r="V45" s="18"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -2978,18 +2969,18 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="67"/>
+      <c r="N46" s="64"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="11"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17">
+      <c r="T46" s="16"/>
+      <c r="U46" s="16">
         <f>COUNTIF(J7:J18,"*MCU*")</f>
         <v>0</v>
       </c>
-      <c r="V46" s="19"/>
+      <c r="V46" s="18"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -3007,18 +2998,18 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="67"/>
+      <c r="N47" s="64"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="11"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17">
+      <c r="T47" s="16"/>
+      <c r="U47" s="16">
         <f>COUNTIF(J8:J19,"*GPS*")</f>
         <v>0</v>
       </c>
-      <c r="V47" s="19"/>
+      <c r="V47" s="18"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -3036,18 +3027,18 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="67"/>
+      <c r="N48" s="64"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="11"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="41">
+      <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
         <v>3</v>
       </c>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="42"/>
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -3065,41 +3056,41 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="67"/>
+      <c r="N49" s="64"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="43"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="42"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>45</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="43"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="42"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -3117,135 +3108,130 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="67"/>
+      <c r="N51" s="64"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="43"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="42"/>
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="43"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="42"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="43"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="42"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="43"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="42"/>
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="46"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="45"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3259,6 +3245,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3269,35 +3260,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M23"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="17" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="53" style="23" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="58" style="23" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="23"/>
-    <col min="21" max="21" width="30.5703125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" style="23" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="22"/>
+    <col min="21" max="21" width="30.5703125" style="22" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3338,21 +3329,21 @@
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -3371,12 +3362,12 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
@@ -3420,7 +3411,7 @@
       <c r="S4" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="31"/>
+      <c r="T4" s="30"/>
       <c r="U4" s="74" t="s">
         <v>40</v>
       </c>
@@ -3430,35 +3421,35 @@
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="61" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="74"/>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="61" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="78"/>
@@ -3468,277 +3459,277 @@
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
       <c r="S5" s="83"/>
-      <c r="T5" s="31"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="74"/>
       <c r="V5" s="74"/>
     </row>
-    <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="54">
         <v>44203</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <v>44209</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <v>868926033919272</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="63"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="54">
         <v>44203</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <v>44209</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>868926033908440</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="56" t="s">
+      <c r="R7" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T7" s="63"/>
-      <c r="U7" s="85"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="54">
         <v>44203</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <v>44209</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>868926033916682</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="55"/>
+      <c r="I8" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="58" t="s">
+      <c r="P8" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T8" s="63"/>
-      <c r="U8" s="85"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="54">
         <v>44203</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <v>44209</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <v>868926033919371</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="57" t="s">
         <v>103</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="85"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="54">
         <v>44203</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <v>44209</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <v>866192037792601</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K10" s="11" t="s">
@@ -3747,58 +3738,58 @@
       <c r="L10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="85"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <v>44203</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <v>44209</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <v>869627031774672</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -3807,131 +3798,131 @@
       <c r="L11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T11" s="63"/>
-      <c r="U11" s="85"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <v>44203</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <v>44209</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>868926033929966</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="84" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="71" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <v>44203</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>44209</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="56">
         <v>866192037808886</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="58" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="57" t="s">
         <v>97</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="57" t="s">
         <v>122</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -3940,74 +3931,74 @@
       <c r="Q13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="55" t="s">
         <v>123</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="63"/>
-      <c r="U13" s="85"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="54">
         <v>44203</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <v>44209</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="56">
         <v>868926033950400</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="63"/>
-      <c r="U14" s="85"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4016,58 +4007,58 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="54">
         <v>44203</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <v>44209</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>864811036927569</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56" t="s">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="58" t="s">
+      <c r="P15" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="85"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4076,27 +4067,27 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="54">
         <v>44203</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <v>44209</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <v>868926033908630</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -4105,29 +4096,29 @@
       <c r="L16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="58" t="s">
+      <c r="P16" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="86"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -4136,38 +4127,38 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="54">
         <v>44203</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>44209</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <v>864811036931603</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="57" t="s">
         <v>97</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="57" t="s">
         <v>122</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="57" t="s">
         <v>80</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -4176,41 +4167,41 @@
       <c r="Q17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R17" s="56" t="s">
+      <c r="R17" s="55" t="s">
         <v>123</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="18"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="17"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="54">
         <v>44203</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <v>44209</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <v>864811036952237</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -4219,56 +4210,56 @@
       <c r="L18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="58" t="s">
+      <c r="O18" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="19"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="54">
         <v>44203</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>44209</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="56">
         <v>868926033963221</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K19" s="11" t="s">
@@ -4277,32 +4268,32 @@
       <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T19" s="17"/>
-      <c r="U19" s="64" t="s">
+      <c r="T19" s="16"/>
+      <c r="U19" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="20" t="s">
+      <c r="V19" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4310,55 +4301,55 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="54">
         <v>44203</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <v>44209</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <v>864811036991565</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56" t="s">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="57" t="s">
         <v>120</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>101</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="58" t="s">
+      <c r="M20" s="57" t="s">
         <v>103</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="56" t="s">
+      <c r="R20" s="55" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T20" s="17"/>
+      <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
         <v>18</v>
       </c>
@@ -4371,27 +4362,27 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="54">
         <v>44203</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <v>44209</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <v>866192037807326</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56" t="s">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K21" s="11" t="s">
@@ -4400,28 +4391,28 @@
       <c r="L21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="P21" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R21" s="56" t="s">
+      <c r="R21" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T21" s="17"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
         <v>58</v>
       </c>
@@ -4434,57 +4425,57 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="54">
         <v>44203</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <v>44209</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="56">
         <v>868926033948610</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56" t="s">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="K22" s="28" t="s">
         <v>100</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="M22" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O22" s="58" t="s">
+      <c r="O22" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T22" s="17"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
         <v>59</v>
       </c>
@@ -4497,27 +4488,27 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="54">
         <v>44203</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <v>44209</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="56">
         <v>864811037204463</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56" t="s">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K23" s="11" t="s">
@@ -4526,30 +4517,30 @@
       <c r="L23" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="57" t="s">
         <v>106</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O23" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="P23" s="57" t="s">
         <v>81</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R23" s="56" t="s">
+      <c r="R23" s="55" t="s">
         <v>88</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="19"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="18"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -4557,10 +4548,10 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4568,14 +4559,14 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="58"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="18"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -4583,10 +4574,10 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4594,16 +4585,16 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="58"/>
+      <c r="O25" s="57"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="64" t="s">
+      <c r="T25" s="16"/>
+      <c r="U25" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="20" t="s">
+      <c r="V25" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4613,10 +4604,10 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -4624,12 +4615,12 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="58"/>
+      <c r="O26" s="57"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="17"/>
+      <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
         <v>27</v>
       </c>
@@ -4644,10 +4635,10 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -4655,12 +4646,12 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="58"/>
+      <c r="O27" s="57"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="17"/>
+      <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
         <v>35</v>
       </c>
@@ -4675,10 +4666,10 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4686,12 +4677,12 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="58"/>
+      <c r="O28" s="57"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="17"/>
+      <c r="T28" s="16"/>
       <c r="U28" s="4" t="s">
         <v>28</v>
       </c>
@@ -4706,10 +4697,10 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4717,12 +4708,12 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="58"/>
+      <c r="O29" s="57"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="17"/>
+      <c r="T29" s="16"/>
       <c r="U29" s="4" t="s">
         <v>61</v>
       </c>
@@ -4753,7 +4744,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="17"/>
+      <c r="T30" s="16"/>
       <c r="U30" s="4" t="s">
         <v>33</v>
       </c>
@@ -4784,7 +4775,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="17"/>
+      <c r="T31" s="16"/>
       <c r="U31" s="4" t="s">
         <v>23</v>
       </c>
@@ -4815,7 +4806,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="17"/>
+      <c r="T32" s="16"/>
       <c r="U32" s="4" t="s">
         <v>29</v>
       </c>
@@ -4846,7 +4837,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="17"/>
+      <c r="T33" s="16"/>
       <c r="U33" s="4" t="s">
         <v>56</v>
       </c>
@@ -4877,7 +4868,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="17"/>
+      <c r="T34" s="16"/>
       <c r="U34" s="4" t="s">
         <v>57</v>
       </c>
@@ -4908,7 +4899,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="17"/>
+      <c r="T35" s="16"/>
       <c r="U35" s="4" t="s">
         <v>39</v>
       </c>
@@ -4939,7 +4930,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="17"/>
+      <c r="T36" s="16"/>
       <c r="U36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4970,8 +4961,8 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="21" t="s">
+      <c r="T37" s="16"/>
+      <c r="U37" s="20" t="s">
         <v>34</v>
       </c>
       <c r="V37" s="11">
@@ -5001,9 +4992,9 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="19"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="18"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -5027,9 +5018,9 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="19"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="18"/>
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -5053,8 +5044,8 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="21" t="s">
+      <c r="T40" s="16"/>
+      <c r="U40" s="20" t="s">
         <v>41</v>
       </c>
       <c r="V40" s="11">
@@ -5084,8 +5075,8 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="21" t="s">
+      <c r="T41" s="16"/>
+      <c r="U41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="V41" s="11">
@@ -5115,9 +5106,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="19"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="18"/>
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -5141,9 +5132,9 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="19"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="18"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -5167,9 +5158,9 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="11"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="19"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="18"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -5193,12 +5184,12 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="11"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17">
+      <c r="T45" s="16"/>
+      <c r="U45" s="16">
         <f>COUNTIF(J6:J17,"*ACC*")</f>
         <v>2</v>
       </c>
-      <c r="V45" s="19"/>
+      <c r="V45" s="18"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -5222,12 +5213,12 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="11"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17">
+      <c r="T46" s="16"/>
+      <c r="U46" s="16">
         <f>COUNTIF(J7:J18,"*MCU*")</f>
         <v>2</v>
       </c>
-      <c r="V46" s="19"/>
+      <c r="V46" s="18"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -5251,12 +5242,12 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="11"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17">
+      <c r="T47" s="16"/>
+      <c r="U47" s="16">
         <f>COUNTIF(J8:J19,"*GPS*")</f>
         <v>0</v>
       </c>
-      <c r="V47" s="19"/>
+      <c r="V47" s="18"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -5280,12 +5271,12 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="11"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="41">
+      <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
         <v>0</v>
       </c>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="42"/>
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -5309,35 +5300,35 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="43"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="42"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>45</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="43"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="42"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -5361,131 +5352,124 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="43"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="42"/>
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="43"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="42"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="43"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="42"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="43"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="42"/>
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="46"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="45"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5497,6 +5481,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5507,35 +5498,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="17" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="53" style="23" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="58" style="23" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="23" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="23" customWidth="1"/>
-    <col min="19" max="20" width="26.85546875" style="23" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="23"/>
-    <col min="22" max="22" width="30.5703125" style="23" customWidth="1"/>
-    <col min="23" max="23" width="21.42578125" style="23" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="17" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="53" style="22" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="58" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="22"/>
+    <col min="22" max="22" width="30.5703125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5577,22 +5568,22 @@
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="32"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -5611,13 +5602,13 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="32"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
@@ -5658,11 +5649,11 @@
       <c r="R4" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
       <c r="V4" s="74" t="s">
         <v>40</v>
       </c>
@@ -5709,273 +5700,539 @@
       <c r="P5" s="75"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
       <c r="V5" s="74"/>
       <c r="W5" s="74"/>
     </row>
-    <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="56"/>
+      <c r="B6" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="56">
+        <v>868183035898084</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="57"/>
+      <c r="K6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="84" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="B7" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="56">
+        <v>868183038526641</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="I7" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="61"/>
+      <c r="L7" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>88</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="85"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="56">
+        <v>868183037864522</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="85"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="61"/>
+      <c r="B9" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C9" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="56">
+        <v>860157040200864</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="55" t="s">
+        <v>128</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="85"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="B10" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C10" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="56">
+        <v>868183033827242</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>82</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="85"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="56"/>
+      <c r="B11" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C11" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="56">
+        <v>868183033781240</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="55" t="s">
+        <v>82</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="85"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="61"/>
+      <c r="B12" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C12" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="56">
+        <v>867857039924670</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>82</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="84" t="s">
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="71" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="B13" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C13" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="56">
+        <v>868183033835195</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="55" t="s">
+        <v>128</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="85"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
+      <c r="B14" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C14" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="56">
+        <v>868183033881421</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="55" t="s">
+        <v>88</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="85"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5984,27 +6241,57 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
+      <c r="B15" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C15" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="56">
+        <v>860157040205707</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>88</v>
+      </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="85"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6013,27 +6300,59 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
+      <c r="B16" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C16" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="56">
+        <v>868183035885776</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>128</v>
+      </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="86"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6042,84 +6361,180 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="18"/>
+      <c r="B17" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="56">
+        <v>868926033919272</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="55"/>
+      <c r="I17" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="19"/>
+      <c r="B18" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="56">
+        <v>868926033908440</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T18" s="32"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="18"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="17"/>
+      <c r="B19" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C19" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="56">
+        <v>868926033916682</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T19" s="32"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="20" t="s">
+      <c r="W19" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6127,180 +6542,368 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="17"/>
+      <c r="B20" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C20" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="56">
+        <v>868926033919371</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20" s="32"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="17"/>
+      <c r="B21" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C21" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="56">
+        <v>866192037792601</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21" s="32"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="17"/>
+      <c r="B22" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C22" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="56">
+        <v>869627031774672</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" s="32"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>59</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="19"/>
+      <c r="B23" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C23" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="56">
+        <v>868926033929966</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T23" s="32"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="19"/>
+      <c r="B24" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C24" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="56">
+        <v>866192037808886</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T24" s="32"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="18"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="17"/>
+      <c r="B25" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C25" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="56">
+        <v>868926033950400</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T25" s="32"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W25" s="20" t="s">
+      <c r="W25" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6308,90 +6911,182 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="17"/>
+      <c r="B26" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C26" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="56">
+        <v>864811036927569</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26" s="32"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="W26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="17"/>
+      <c r="B27" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C27" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="56">
+        <v>868926033908630</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T27" s="32"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="B28" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C28" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="56">
+        <v>864811036931603</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="57" t="s">
+        <v>97</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="57" t="s">
+        <v>122</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="17"/>
+      <c r="O28" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T28" s="32"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>28</v>
       </c>
@@ -6404,26 +7099,58 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="B29" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C29" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="56">
+        <v>864811036952237</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="17"/>
+      <c r="I29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R29" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T29" s="32"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>61</v>
       </c>
@@ -6436,90 +7163,184 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="B30" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C30" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="56">
+        <v>868926033963221</v>
+      </c>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="17"/>
+      <c r="I30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T30" s="32"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="B31" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C31" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56">
+        <v>864811036991565</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="17"/>
+      <c r="M31" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T31" s="32"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C32" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="56">
+        <v>866192037807326</v>
+      </c>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="17"/>
+      <c r="I32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R32" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T32" s="32"/>
+      <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>29</v>
       </c>
@@ -6532,58 +7353,122 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="17"/>
+      <c r="B33" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C33" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="56">
+        <v>868926033948610</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T33" s="32"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="17"/>
+      <c r="B34" s="54">
+        <v>44203</v>
+      </c>
+      <c r="C34" s="54">
+        <v>44209</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="56">
+        <v>864811037204463</v>
+      </c>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R34" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T34" s="32"/>
+      <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>57</v>
       </c>
@@ -6614,14 +7499,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="17"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6646,8 +7531,8 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="17"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>30</v>
       </c>
@@ -6678,14 +7563,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="21" t="s">
+      <c r="T37" s="32"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="20" t="s">
         <v>34</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,10 +7595,10 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="19"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="18"/>
     </row>
     <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -6737,10 +7622,10 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="19"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="18"/>
     </row>
     <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -6764,9 +7649,9 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="21" t="s">
+      <c r="T40" s="32"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W40" s="11">
@@ -6796,9 +7681,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="21" t="s">
+      <c r="T41" s="32"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="W41" s="11">
@@ -6828,10 +7713,10 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="19"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="18"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -6855,10 +7740,10 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="19"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="18"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -6882,8 +7767,8 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="11"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="17"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="16"/>
       <c r="V44" s="5" t="s">
         <v>3</v>
       </c>
@@ -6913,8 +7798,8 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="11"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="17"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="16"/>
       <c r="V45" s="11" t="s">
         <v>51</v>
       </c>
@@ -6945,14 +7830,14 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="11"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="51"/>
-      <c r="U46" s="17"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="16"/>
       <c r="V46" s="11" t="s">
         <v>45</v>
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6977,8 +7862,8 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="11"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="53"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="52"/>
       <c r="V47" s="11" t="s">
         <v>46</v>
       </c>
@@ -7009,14 +7894,14 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="11"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="53"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="52"/>
       <c r="V48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7041,8 +7926,8 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="11"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="51"/>
-      <c r="U49" s="53"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="52"/>
       <c r="V49" s="11" t="s">
         <v>48</v>
       </c>
@@ -7052,29 +7937,29 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
+      <c r="A50" s="34">
         <v>45</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="51"/>
-      <c r="U50" s="53"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="52"/>
       <c r="V50" s="11" t="s">
         <v>49</v>
       </c>
@@ -7105,8 +7990,8 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="53"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="52"/>
       <c r="V51" s="11" t="s">
         <v>50</v>
       </c>
@@ -7119,26 +8004,26 @@
       <c r="A52" s="4">
         <v>47</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="51"/>
-      <c r="U52" s="53"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="52"/>
       <c r="V52" s="11" t="s">
         <v>52</v>
       </c>
@@ -7151,26 +8036,26 @@
       <c r="A53" s="4">
         <v>48</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="51"/>
-      <c r="U53" s="53"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="52"/>
       <c r="V53" s="11" t="s">
         <v>53</v>
       </c>
@@ -7180,29 +8065,29 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35">
+      <c r="A54" s="34">
         <v>49</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="51"/>
-      <c r="U54" s="53"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="52"/>
       <c r="V54" s="11" t="s">
         <v>54</v>
       </c>
@@ -7215,26 +8100,26 @@
       <c r="A55" s="4">
         <v>50</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="51"/>
-      <c r="U55" s="53"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="52"/>
       <c r="V55" s="11" t="s">
         <v>64</v>
       </c>
@@ -7247,30 +8132,30 @@
       <c r="A56" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="51"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="87" t="s">
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="84">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7279,135 +8164,135 @@
       <c r="A57" s="4">
         <v>52</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>53</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="86"/>
+      <c r="W58" s="86"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>54</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="43"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="42"/>
     </row>
     <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>55</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="43"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="42"/>
     </row>
     <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>56</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="51"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="21" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="20" t="s">
         <v>41</v>
       </c>
       <c r="W61" s="11">
@@ -7419,27 +8304,27 @@
       <c r="A62" s="4">
         <v>57</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="51"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="21" t="s">
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="20" t="s">
         <v>42</v>
       </c>
       <c r="W62" s="11">
@@ -7451,1169 +8336,1179 @@
       <c r="A63" s="4">
         <v>58</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="51"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="43"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="42"/>
     </row>
     <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>59</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="43"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="42"/>
     </row>
     <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>60</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="51"/>
-      <c r="U65" s="53"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="43"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="42"/>
     </row>
     <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>61</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="51"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="43"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="42"/>
     </row>
     <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>62</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="51"/>
-      <c r="U67" s="53"/>
-      <c r="V67" s="42">
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="41">
         <f>SUM(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="W67" s="43"/>
+      <c r="W67" s="42"/>
     </row>
     <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>63</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="51"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="43"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="42"/>
     </row>
     <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>64</v>
       </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="43"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="42"/>
     </row>
     <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="51"/>
-      <c r="U70" s="53"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="43"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="42"/>
     </row>
     <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>66</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="51"/>
-      <c r="U71" s="53"/>
-      <c r="V71" s="42"/>
-      <c r="W71" s="43"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="42"/>
     </row>
     <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>67</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="42"/>
-      <c r="W72" s="43"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="42"/>
     </row>
     <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>68</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="51"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="42"/>
-      <c r="W73" s="43"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="42"/>
     </row>
     <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>69</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="51"/>
-      <c r="U74" s="53"/>
-      <c r="V74" s="42"/>
-      <c r="W74" s="43"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="42"/>
     </row>
     <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>70</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="51"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="43"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="52"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="42"/>
     </row>
     <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>71</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="53"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="43"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="52"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="42"/>
     </row>
     <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>72</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="51"/>
-      <c r="U77" s="53"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="43"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="50"/>
+      <c r="U77" s="52"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="42"/>
     </row>
     <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>73</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="53"/>
-      <c r="V78" s="42"/>
-      <c r="W78" s="43"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="52"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="42"/>
     </row>
     <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>74</v>
       </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="51"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="43"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="52"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="42"/>
     </row>
     <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>75</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="51"/>
-      <c r="U80" s="53"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="43"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="52"/>
+      <c r="V80" s="41"/>
+      <c r="W80" s="42"/>
     </row>
     <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>76</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="51"/>
-      <c r="U81" s="53"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="43"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="50"/>
+      <c r="U81" s="52"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="42"/>
     </row>
     <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>77</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="51"/>
-      <c r="U82" s="53"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="43"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="50"/>
+      <c r="U82" s="52"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="42"/>
     </row>
     <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>78</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="51"/>
-      <c r="U83" s="53"/>
-      <c r="V83" s="42"/>
-      <c r="W83" s="43"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="52"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="42"/>
     </row>
     <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>79</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="51"/>
-      <c r="U84" s="53"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="43"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="50"/>
+      <c r="U84" s="52"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="42"/>
     </row>
     <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>80</v>
       </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="39"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="51"/>
-      <c r="U85" s="53"/>
-      <c r="V85" s="42"/>
-      <c r="W85" s="43"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="50"/>
+      <c r="U85" s="52"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="42"/>
     </row>
     <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>81</v>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="51"/>
-      <c r="U86" s="53"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="43"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="52"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="42"/>
     </row>
     <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>82</v>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="51"/>
-      <c r="U87" s="53"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="43"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="50"/>
+      <c r="U87" s="52"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="42"/>
     </row>
     <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>83</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="51"/>
-      <c r="U88" s="53"/>
-      <c r="V88" s="42"/>
-      <c r="W88" s="43"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="52"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="42"/>
     </row>
     <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>84</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="51"/>
-      <c r="U89" s="53"/>
-      <c r="V89" s="42"/>
-      <c r="W89" s="43"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="50"/>
+      <c r="U89" s="52"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="42"/>
     </row>
     <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>85</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="51"/>
-      <c r="U90" s="53"/>
-      <c r="V90" s="42"/>
-      <c r="W90" s="43"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="52"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="42"/>
     </row>
     <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="51"/>
-      <c r="U91" s="53"/>
-      <c r="V91" s="42"/>
-      <c r="W91" s="43"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="50"/>
+      <c r="U91" s="52"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="42"/>
     </row>
     <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="51"/>
-      <c r="U92" s="53"/>
-      <c r="V92" s="42"/>
-      <c r="W92" s="43"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="50"/>
+      <c r="U92" s="52"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="42"/>
     </row>
     <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>88</v>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39"/>
-      <c r="S93" s="39"/>
-      <c r="T93" s="51"/>
-      <c r="U93" s="53"/>
-      <c r="V93" s="42"/>
-      <c r="W93" s="43"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="52"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="42"/>
     </row>
     <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>89</v>
       </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="39"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39"/>
-      <c r="S94" s="39"/>
-      <c r="T94" s="51"/>
-      <c r="U94" s="53"/>
-      <c r="V94" s="42"/>
-      <c r="W94" s="43"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="52"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="42"/>
     </row>
     <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>90</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="39"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="51"/>
-      <c r="U95" s="53"/>
-      <c r="V95" s="42"/>
-      <c r="W95" s="43"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="52"/>
+      <c r="V95" s="41"/>
+      <c r="W95" s="42"/>
     </row>
     <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>91</v>
       </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="51"/>
-      <c r="U96" s="53"/>
-      <c r="V96" s="42"/>
-      <c r="W96" s="43"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="50"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="42"/>
     </row>
     <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>92</v>
       </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
-      <c r="S97" s="39"/>
-      <c r="T97" s="51"/>
-      <c r="U97" s="53"/>
-      <c r="V97" s="42"/>
-      <c r="W97" s="43"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="52"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="42"/>
     </row>
     <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>93</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="51"/>
-      <c r="U98" s="53"/>
-      <c r="V98" s="42"/>
-      <c r="W98" s="43"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="50"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="41"/>
+      <c r="W98" s="42"/>
     </row>
     <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>94</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="51"/>
-      <c r="U99" s="53"/>
-      <c r="V99" s="42"/>
-      <c r="W99" s="43"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="38"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="50"/>
+      <c r="U99" s="52"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="42"/>
     </row>
     <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>95</v>
       </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
-      <c r="T100" s="51"/>
-      <c r="U100" s="53"/>
-      <c r="V100" s="42"/>
-      <c r="W100" s="43"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="38"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="50"/>
+      <c r="U100" s="52"/>
+      <c r="V100" s="41"/>
+      <c r="W100" s="42"/>
     </row>
     <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>96</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="51"/>
-      <c r="U101" s="53"/>
-      <c r="V101" s="42"/>
-      <c r="W101" s="43"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="50"/>
+      <c r="U101" s="52"/>
+      <c r="V101" s="41"/>
+      <c r="W101" s="42"/>
     </row>
     <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>97</v>
       </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="39"/>
-      <c r="N102" s="39"/>
-      <c r="O102" s="39"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="39"/>
-      <c r="T102" s="51"/>
-      <c r="U102" s="53"/>
-      <c r="V102" s="42"/>
-      <c r="W102" s="43"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="39"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="38"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
+      <c r="Q102" s="38"/>
+      <c r="R102" s="38"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="50"/>
+      <c r="U102" s="52"/>
+      <c r="V102" s="41"/>
+      <c r="W102" s="42"/>
     </row>
     <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>98</v>
       </c>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="40"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="39"/>
-      <c r="T103" s="51"/>
-      <c r="U103" s="53"/>
-      <c r="V103" s="42"/>
-      <c r="W103" s="43"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="38"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="38"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="50"/>
+      <c r="U103" s="52"/>
+      <c r="V103" s="41"/>
+      <c r="W103" s="42"/>
     </row>
     <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>99</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="40"/>
-      <c r="M104" s="39"/>
-      <c r="N104" s="39"/>
-      <c r="O104" s="39"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="39"/>
-      <c r="R104" s="39"/>
-      <c r="S104" s="39"/>
-      <c r="T104" s="51"/>
-      <c r="U104" s="53"/>
-      <c r="V104" s="42"/>
-      <c r="W104" s="43"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="38"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
+      <c r="Q104" s="38"/>
+      <c r="R104" s="38"/>
+      <c r="S104" s="38"/>
+      <c r="T104" s="50"/>
+      <c r="U104" s="52"/>
+      <c r="V104" s="41"/>
+      <c r="W104" s="42"/>
     </row>
     <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>100</v>
       </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="39"/>
-      <c r="N105" s="39"/>
-      <c r="O105" s="39"/>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="39"/>
-      <c r="T105" s="52"/>
-      <c r="U105" s="54"/>
-      <c r="V105" s="45"/>
-      <c r="W105" s="46"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="53"/>
+      <c r="V105" s="44"/>
+      <c r="W105" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8624,16 +9519,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="141">
   <si>
     <t>STT</t>
   </si>
@@ -936,6 +936,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,15 +973,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1328,42 +1328,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1406,57 +1406,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="86" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="77" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1481,23 +1481,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="74" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2188,9 +2188,13 @@
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="11"/>
       <c r="N18" s="1"/>
@@ -3422,11 +3426,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3440,6 +3439,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3482,42 +3486,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -3560,57 +3564,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="86" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="77" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3635,23 +3639,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3708,7 +3712,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3770,7 +3774,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4070,7 +4074,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="74" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4128,7 +4132,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4188,7 +4192,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5716,13 +5720,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5734,6 +5731,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5776,43 +5780,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -5857,42 +5861,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="77" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="90" t="s">
@@ -5900,15 +5904,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="77" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -5933,24 +5937,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
       <c r="S5" s="91"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5976,7 +5980,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="84" t="s">
+      <c r="V6" s="74" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6007,7 +6011,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="85"/>
+      <c r="V7" s="75"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6036,7 +6040,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="85"/>
+      <c r="V8" s="75"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6065,7 +6069,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="85"/>
+      <c r="V9" s="75"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6094,7 +6098,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="85"/>
+      <c r="V10" s="75"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6123,7 +6127,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="85"/>
+      <c r="V11" s="75"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6152,7 +6156,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="84" t="s">
+      <c r="V12" s="74" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6183,7 +6187,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="85"/>
+      <c r="V13" s="75"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6212,7 +6216,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="85"/>
+      <c r="V14" s="75"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6241,7 +6245,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="85"/>
+      <c r="V15" s="75"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6270,7 +6274,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="86"/>
+      <c r="V16" s="76"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -8851,6 +8855,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8861,16 +8875,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -457,6 +457,30 @@
   </si>
   <si>
     <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31003</t>
+  </si>
+  <si>
+    <t>Chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31004</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21675</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,30001</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2278,9 +2302,13 @@
         <v>70</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2295,7 +2323,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2334,7 +2362,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,16 +2384,30 @@
         <v>69</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="N22" s="66"/>
       <c r="O22" s="58"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="P22" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="17"/>
       <c r="U22" s="11" t="s">
@@ -2463,9 +2505,13 @@
         <v>70</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="L25" s="11"/>
       <c r="M25" s="68"/>
       <c r="N25" s="66"/>
@@ -2540,16 +2586,30 @@
         <v>70</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
+      <c r="I27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="68"/>
+      <c r="M27" s="68" t="s">
+        <v>147</v>
+      </c>
       <c r="N27" s="66"/>
       <c r="O27" s="58"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="17"/>
       <c r="U27" s="4" t="s">
@@ -2596,7 +2656,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,16 +2678,30 @@
         <v>69</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="68"/>
+      <c r="M29" s="68" t="s">
+        <v>143</v>
+      </c>
       <c r="N29" s="67"/>
       <c r="O29" s="58"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
+      <c r="P29" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="17"/>
       <c r="U29" s="4" t="s">
@@ -2635,7 +2709,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2774,9 +2848,13 @@
         <v>70</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="68"/>
       <c r="N33" s="67"/>
@@ -2861,7 +2939,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2923,7 +3001,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="180">
   <si>
     <t>STT</t>
   </si>
@@ -465,9 +465,6 @@
     <t>Chập nguồn</t>
   </si>
   <si>
-    <t>Thay diode quá áp</t>
-  </si>
-  <si>
     <t>Lock: 112.213.94.88,31004</t>
   </si>
   <si>
@@ -481,6 +478,102 @@
   </si>
   <si>
     <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20475</t>
+  </si>
+  <si>
+    <t>Thiếu nguồn GSM</t>
+  </si>
+  <si>
+    <t>Chập nguồn MCU, GSM</t>
+  </si>
+  <si>
+    <t>NG,MCU,GSM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Chập nổ nguồn 4v4,3v3</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4, 3v3, MCU, Module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20375</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại server VNET</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,21475</t>
+  </si>
+  <si>
+    <t>Chập nguồn 4v4.3v3, chập Module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay anten GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20575</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 3v3, MCU, Module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,MCU,GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043048096</t>
+  </si>
+  <si>
+    <t>Thay mosfet, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043048161</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043046397</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4, 3v3. module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG, GSM</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043045647</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038474826</t>
+  </si>
+  <si>
+    <t>Imei mới: 860157043048542</t>
   </si>
 </sst>
 </file>
@@ -739,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,13 +1053,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,6 +1084,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1320,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1352,42 +1448,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1430,57 +1526,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1505,23 +1601,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1574,7 +1670,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1632,7 +1728,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1688,7 +1784,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +1844,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1806,7 +1902,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1864,7 +1960,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +2018,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1982,7 +2078,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2040,7 +2136,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2098,7 +2194,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2158,7 +2254,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2175,21 +2271,39 @@
         <v>45</v>
       </c>
       <c r="E17" s="57">
-        <v>868183033792588</v>
+        <v>868183033791588</v>
       </c>
       <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="58"/>
+      <c r="I17" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>165</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="56"/>
+      <c r="P17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="56" t="s">
+        <v>153</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="17"/>
       <c r="U17" s="14"/>
@@ -2210,22 +2324,34 @@
         <v>868183035898084</v>
       </c>
       <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>70</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="58"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -2249,12 +2375,14 @@
       <c r="G19" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="I19" s="58" t="s">
         <v>72</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>77</v>
@@ -2303,19 +2431,29 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="58"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="P20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="17"/>
       <c r="U20" s="11" t="s">
@@ -2323,7 +2461,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,16 +2483,30 @@
         <v>69</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="58"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="P21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="17"/>
       <c r="U21" s="11" t="s">
@@ -2387,7 +2539,9 @@
       <c r="I22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="K22" s="11" t="s">
         <v>71</v>
       </c>
@@ -2395,7 +2549,7 @@
         <v>77</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="N22" s="66"/>
       <c r="O22" s="58"/>
@@ -2403,10 +2557,10 @@
         <v>140</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="17"/>
@@ -2415,7 +2569,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,17 +2590,35 @@
       <c r="G23" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="H23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="N23" s="66"/>
       <c r="O23" s="58"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="P23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
@@ -2471,16 +2643,32 @@
         <v>69</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="I24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="N24" s="66"/>
       <c r="O24" s="58"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
@@ -2506,19 +2694,29 @@
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="68"/>
+      <c r="L25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="68" t="s">
+        <v>39</v>
+      </c>
       <c r="N25" s="66"/>
       <c r="O25" s="58"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="P25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="17"/>
       <c r="U25" s="5" t="s">
@@ -2546,17 +2744,35 @@
       <c r="G26" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="68"/>
+      <c r="H26" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>167</v>
+      </c>
       <c r="N26" s="66"/>
       <c r="O26" s="58"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
+      <c r="P26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="17"/>
       <c r="U26" s="4" t="s">
@@ -2564,7 +2780,7 @@
       </c>
       <c r="V26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,19 +2801,21 @@
       <c r="G27" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>77</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N27" s="66"/>
       <c r="O27" s="58"/>
@@ -2617,7 +2835,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,16 +2857,30 @@
         <v>70</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="68"/>
+      <c r="K28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>39</v>
+      </c>
       <c r="N28" s="67"/>
       <c r="O28" s="58"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
+      <c r="P28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="17"/>
       <c r="U28" s="4" t="s">
@@ -2656,7 +2888,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2687,20 +2919,22 @@
       <c r="K29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="M29" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="N29" s="67"/>
+        <v>165</v>
+      </c>
+      <c r="N29" s="74"/>
       <c r="O29" s="58"/>
       <c r="P29" s="11" t="s">
         <v>140</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="17"/>
@@ -2709,7 +2943,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,17 +2964,35 @@
       <c r="G30" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="68"/>
+      <c r="H30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="68" t="s">
+        <v>155</v>
+      </c>
       <c r="N30" s="67"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
+      <c r="P30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="17"/>
       <c r="U30" s="4" t="s">
@@ -2770,16 +3022,32 @@
         <v>70</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="68"/>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="68" t="s">
+        <v>171</v>
+      </c>
       <c r="N31" s="67"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
+      <c r="P31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="17"/>
       <c r="U31" s="4" t="s">
@@ -2809,16 +3077,30 @@
         <v>70</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="68"/>
+      <c r="M32" s="68" t="s">
+        <v>171</v>
+      </c>
       <c r="N32" s="67"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
+      <c r="P32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="17"/>
       <c r="U32" s="4" t="s">
@@ -2826,7 +3108,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2847,21 +3129,35 @@
       <c r="G33" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="68"/>
+      <c r="L33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>173</v>
+      </c>
       <c r="N33" s="67"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
+      <c r="P33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="17"/>
       <c r="U33" s="4" t="s">
@@ -2869,7 +3165,7 @@
       </c>
       <c r="V33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,16 +3187,30 @@
         <v>70</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="68"/>
+      <c r="K34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>39</v>
+      </c>
       <c r="N34" s="67"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
+      <c r="P34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="17"/>
       <c r="U34" s="4" t="s">
@@ -2939,7 +3249,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2970,7 +3280,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,7 +3311,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,7 +3589,7 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17">
         <f>COUNTIF(J8:J19,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="19"/>
     </row>
@@ -3307,7 +3617,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="41">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U48" s="42"/>
       <c r="V48" s="43"/>
@@ -3504,6 +3814,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3517,11 +3832,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3533,7 +3843,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3564,42 +3874,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -3642,57 +3952,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3717,23 +4027,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3790,7 +4100,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3852,7 +4162,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3912,7 +4222,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3972,7 +4282,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4032,7 +4342,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4092,7 +4402,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4152,7 +4462,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4210,7 +4520,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4270,7 +4580,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4330,7 +4640,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4390,7 +4700,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5061,9 +5371,13 @@
         <v>69</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -5798,6 +6112,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5809,13 +6130,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5858,43 +6172,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -5939,58 +6253,58 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="91" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6015,24 +6329,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6058,7 +6372,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="74" t="s">
+      <c r="V6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6089,7 +6403,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="75"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6118,7 +6432,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="75"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6147,7 +6461,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="75"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6176,7 +6490,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="75"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6205,7 +6519,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="75"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6234,7 +6548,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="74" t="s">
+      <c r="V12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6265,7 +6579,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="75"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6294,7 +6608,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="75"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6323,7 +6637,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="75"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6352,7 +6666,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="76"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7586,10 +7900,10 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="87" t="s">
+      <c r="V56" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -7618,8 +7932,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -7645,8 +7959,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -8933,6 +9247,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8943,16 +9267,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="182">
   <si>
     <t>STT</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>Imei mới: 860157043048542</t>
+  </si>
+  <si>
+    <t>22/02/2020</t>
+  </si>
+  <si>
+    <t>Thiết bị thiếu linh kiện giữ lại</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1062,15 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,15 +1099,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1448,42 +1454,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1526,57 +1532,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1601,23 +1607,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1670,7 +1676,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1728,7 +1734,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1790,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +1850,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1902,7 +1908,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2018,7 +2024,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2078,7 +2084,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2136,7 +2142,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2200,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2254,7 +2260,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2272,9 @@
       <c r="B17" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" s="56" t="s">
         <v>45</v>
       </c>
@@ -2294,7 +2302,9 @@
         <v>165</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="58"/>
+      <c r="O17" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>140</v>
       </c>
@@ -2316,7 +2326,9 @@
       <c r="B18" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" s="56" t="s">
         <v>45</v>
       </c>
@@ -2342,7 +2354,9 @@
         <v>160</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="58"/>
+      <c r="O18" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>140</v>
       </c>
@@ -2364,7 +2378,9 @@
       <c r="B19" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" s="56" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2408,9 @@
         <v>139</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>140</v>
       </c>
@@ -2418,7 +2436,9 @@
       <c r="B20" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" s="56" t="s">
         <v>45</v>
       </c>
@@ -2444,7 +2464,9 @@
         <v>39</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="58"/>
+      <c r="O20" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2493,9 @@
       <c r="B21" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" s="56" t="s">
         <v>45</v>
       </c>
@@ -2497,7 +2521,9 @@
         <v>158</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P21" s="1" t="s">
         <v>140</v>
       </c>
@@ -2524,7 +2550,9 @@
       <c r="B22" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D22" s="56" t="s">
         <v>45</v>
       </c>
@@ -2552,7 +2580,9 @@
         <v>163</v>
       </c>
       <c r="N22" s="66"/>
-      <c r="O22" s="58"/>
+      <c r="O22" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P22" s="11" t="s">
         <v>140</v>
       </c>
@@ -2579,7 +2609,9 @@
       <c r="B23" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D23" s="56" t="s">
         <v>45</v>
       </c>
@@ -2608,8 +2640,12 @@
       <c r="M23" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="58"/>
+      <c r="N23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P23" s="11" t="s">
         <v>140</v>
       </c>
@@ -2631,7 +2667,9 @@
       <c r="B24" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D24" s="56" t="s">
         <v>45</v>
       </c>
@@ -2659,7 +2697,9 @@
         <v>170</v>
       </c>
       <c r="N24" s="66"/>
-      <c r="O24" s="58"/>
+      <c r="O24" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P24" s="11" t="s">
         <v>140</v>
       </c>
@@ -2681,7 +2721,9 @@
       <c r="B25" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D25" s="56" t="s">
         <v>45</v>
       </c>
@@ -2707,7 +2749,9 @@
         <v>39</v>
       </c>
       <c r="N25" s="66"/>
-      <c r="O25" s="58"/>
+      <c r="O25" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P25" s="11" t="s">
         <v>140</v>
       </c>
@@ -2733,7 +2777,9 @@
       <c r="B26" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D26" s="56" t="s">
         <v>45</v>
       </c>
@@ -2763,7 +2809,9 @@
         <v>167</v>
       </c>
       <c r="N26" s="66"/>
-      <c r="O26" s="58"/>
+      <c r="O26" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P26" s="11" t="s">
         <v>140</v>
       </c>
@@ -2790,7 +2838,9 @@
       <c r="B27" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D27" s="56" t="s">
         <v>45</v>
       </c>
@@ -2817,8 +2867,12 @@
       <c r="M27" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="58"/>
+      <c r="N27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P27" s="11" t="s">
         <v>140</v>
       </c>
@@ -2845,7 +2899,9 @@
       <c r="B28" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D28" s="56" t="s">
         <v>45</v>
       </c>
@@ -2871,7 +2927,9 @@
         <v>39</v>
       </c>
       <c r="N28" s="67"/>
-      <c r="O28" s="58"/>
+      <c r="O28" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P28" s="11" t="s">
         <v>140</v>
       </c>
@@ -2898,7 +2956,9 @@
       <c r="B29" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D29" s="56" t="s">
         <v>45</v>
       </c>
@@ -2926,7 +2986,9 @@
         <v>165</v>
       </c>
       <c r="N29" s="74"/>
-      <c r="O29" s="58"/>
+      <c r="O29" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P29" s="11" t="s">
         <v>140</v>
       </c>
@@ -2953,7 +3015,9 @@
       <c r="B30" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D30" s="56" t="s">
         <v>45</v>
       </c>
@@ -2982,8 +3046,12 @@
       <c r="M30" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="67"/>
-      <c r="O30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O30" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P30" s="1" t="s">
         <v>140</v>
       </c>
@@ -3010,7 +3078,9 @@
       <c r="B31" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D31" s="56" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3108,9 @@
         <v>171</v>
       </c>
       <c r="N31" s="67"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P31" s="1" t="s">
         <v>140</v>
       </c>
@@ -3065,7 +3137,9 @@
       <c r="B32" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D32" s="56" t="s">
         <v>45</v>
       </c>
@@ -3090,8 +3164,12 @@
       <c r="M32" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="N32" s="67"/>
-      <c r="O32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O32" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P32" s="1" t="s">
         <v>140</v>
       </c>
@@ -3118,7 +3196,9 @@
       <c r="B33" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D33" s="56" t="s">
         <v>45</v>
       </c>
@@ -3148,7 +3228,9 @@
         <v>173</v>
       </c>
       <c r="N33" s="67"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P33" s="1" t="s">
         <v>140</v>
       </c>
@@ -3175,7 +3257,9 @@
       <c r="B34" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="D34" s="56" t="s">
         <v>45</v>
       </c>
@@ -3201,7 +3285,9 @@
         <v>39</v>
       </c>
       <c r="N34" s="67"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P34" s="1" t="s">
         <v>140</v>
       </c>
@@ -3814,11 +3900,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3832,6 +3913,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3842,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3874,42 +3960,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -3952,57 +4038,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4027,23 +4113,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4100,7 +4186,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4162,7 +4248,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4222,7 +4308,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4282,7 +4368,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4342,7 +4428,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4402,7 +4488,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4462,7 +4548,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4520,7 +4606,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4580,7 +4666,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4640,7 +4726,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4700,7 +4786,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5142,7 +5228,9 @@
       <c r="G24" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
@@ -5176,7 +5264,9 @@
       <c r="G25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
@@ -5214,7 +5304,9 @@
       <c r="G26" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
@@ -5253,7 +5345,9 @@
       <c r="G27" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
@@ -5292,7 +5386,9 @@
       <c r="G28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -5331,7 +5427,9 @@
       <c r="G29" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5370,7 +5468,9 @@
       <c r="G30" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>166</v>
       </c>
@@ -6112,13 +6212,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6130,6 +6223,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6172,43 +6272,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -6253,42 +6353,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="91" t="s">
@@ -6296,15 +6396,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6329,24 +6429,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6372,7 +6472,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6403,7 +6503,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6432,7 +6532,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="76"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6461,7 +6561,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6490,7 +6590,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6519,7 +6619,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6548,7 +6648,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6579,7 +6679,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6608,7 +6708,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6637,7 +6737,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6666,7 +6766,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9247,6 +9347,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -9257,16 +9367,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -1062,15 +1062,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,6 +1090,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1454,42 +1454,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1532,57 +1532,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1607,23 +1607,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3900,6 +3900,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3913,11 +3918,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3928,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -3960,42 +3960,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4038,57 +4038,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4113,23 +4113,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4186,7 +4186,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4248,7 +4248,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4606,7 +4606,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -6212,6 +6212,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6223,13 +6230,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6272,43 +6272,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -6353,42 +6353,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="91" t="s">
@@ -6396,15 +6396,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6429,24 +6429,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
       <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6472,7 +6472,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6503,7 +6503,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="76"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="76"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6561,7 +6561,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="76"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="76"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="76"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6648,7 +6648,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="75" t="s">
+      <c r="V12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6679,7 +6679,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="76"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6708,7 +6708,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="76"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="76"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="77"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9347,6 +9347,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -9357,16 +9367,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="184">
   <si>
     <t>STT</t>
   </si>
@@ -579,7 +579,13 @@
     <t>22/02/2020</t>
   </si>
   <si>
-    <t>Thiết bị thiếu linh kiện giữ lại</t>
+    <t>Lock: 203.162.69.18,16885</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20175</t>
   </si>
 </sst>
 </file>
@@ -1062,6 +1068,15 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,15 +1105,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -1454,42 +1460,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1532,57 +1538,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1607,23 +1613,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1676,7 +1682,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1734,7 +1740,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1796,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1856,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1908,7 +1914,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1966,7 +1972,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2024,7 +2030,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2084,7 +2090,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2142,7 +2148,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2200,7 +2206,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2266,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3900,11 +3906,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3918,6 +3919,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3928,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3960,42 +3966,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4038,57 +4044,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4113,23 +4119,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4186,7 +4192,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4248,7 +4254,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4488,7 +4494,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4606,7 +4612,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5149,7 +5155,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5228,9 +5234,7 @@
       <c r="G24" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
@@ -5264,9 +5268,7 @@
       <c r="G25" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
@@ -5304,9 +5306,7 @@
       <c r="G26" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="H26" s="11"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
@@ -5345,9 +5345,7 @@
       <c r="G27" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
@@ -5386,20 +5384,36 @@
       <c r="G28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="58"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
+      <c r="P28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T28" s="17"/>
       <c r="U28" s="4" t="s">
         <v>28</v>
@@ -5427,20 +5441,36 @@
       <c r="G29" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
+      <c r="J29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="58"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
+      <c r="P29" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T29" s="17"/>
       <c r="U29" s="4" t="s">
         <v>61</v>
@@ -5468,9 +5498,7 @@
       <c r="G30" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="1" t="s">
         <v>166</v>
       </c>
@@ -5523,7 +5551,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,7 +5675,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5737,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6212,13 +6240,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6230,6 +6251,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6272,43 +6300,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -6353,42 +6381,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="91" t="s">
@@ -6396,15 +6424,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6429,24 +6457,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6472,7 +6500,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6503,7 +6531,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6532,7 +6560,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="76"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6561,7 +6589,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6590,7 +6618,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6619,7 +6647,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6648,7 +6676,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6679,7 +6707,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6708,7 +6736,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6737,7 +6765,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +6794,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9347,6 +9375,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -9357,16 +9395,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="185">
   <si>
     <t>STT</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>Lock: 203.162.69.75,20175</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,15 +1071,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,6 +1101,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,6 +1123,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1460,42 +1466,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1538,57 +1544,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1613,23 +1619,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1682,7 +1688,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1740,7 +1746,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1802,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1862,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1914,7 +1920,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1972,7 +1978,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2030,7 +2036,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2090,7 +2096,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2206,7 +2212,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2272,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3906,6 +3912,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3919,11 +3930,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3935,7 +3941,7 @@
   <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3966,42 +3972,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4044,57 +4050,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4119,23 +4125,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4192,7 +4198,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4254,7 +4260,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4314,7 +4320,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4494,7 +4500,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4554,7 +4560,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4612,7 +4618,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4792,7 +4798,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5092,7 +5098,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5269,16 +5275,32 @@
         <v>69</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
+      <c r="I25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N25" s="93">
+        <v>220000</v>
+      </c>
       <c r="O25" s="58"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="P25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="17"/>
       <c r="U25" s="64" t="s">
@@ -5363,7 +5385,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5737,7 +5759,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6240,6 +6262,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6251,13 +6280,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6300,43 +6322,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -6381,42 +6403,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="91" t="s">
@@ -6424,15 +6446,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6457,24 +6479,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
       <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6500,7 +6522,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6531,7 +6553,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="76"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6560,7 +6582,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="76"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6589,7 +6611,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="76"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6618,7 +6640,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="76"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6647,7 +6669,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="76"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6676,7 +6698,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="75" t="s">
+      <c r="V12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6707,7 +6729,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="76"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6736,7 +6758,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="76"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6765,7 +6787,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="76"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6794,7 +6816,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="77"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9375,6 +9397,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -9385,16 +9417,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_TarisSG.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="190">
   <si>
     <t>STT</t>
   </si>
@@ -582,13 +582,28 @@
     <t>Lock: 203.162.69.18,16885</t>
   </si>
   <si>
-    <t>Nâng cấp khay sim</t>
-  </si>
-  <si>
     <t>Lock: 203.162.69.75,20175</t>
   </si>
   <si>
     <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.75,20275</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.69.18,16886</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.94.88,31006</t>
+  </si>
+  <si>
+    <t>Thay module GSM (Khách báo không sửa)</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -675,7 +690,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1071,6 +1092,15 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,15 +1131,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,7 +1146,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1434,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showZeros="0" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1466,42 +1499,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1544,57 +1577,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1619,23 +1652,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1688,7 +1721,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1746,7 +1779,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1802,7 +1835,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1895,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1920,7 +1953,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +2011,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2036,7 +2069,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -2096,7 +2129,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2154,7 +2187,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -2212,7 +2245,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +2305,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3912,11 +3945,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3930,6 +3958,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3940,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3972,42 +4005,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -4050,57 +4083,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -4125,23 +4158,23 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="64" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4198,7 +4231,7 @@
         <v>107</v>
       </c>
       <c r="T6" s="63"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4260,7 +4293,7 @@
         <v>107</v>
       </c>
       <c r="T7" s="63"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4353,7 @@
         <v>107</v>
       </c>
       <c r="T8" s="63"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4380,7 +4413,7 @@
         <v>107</v>
       </c>
       <c r="T9" s="63"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -4440,7 +4473,7 @@
         <v>107</v>
       </c>
       <c r="T10" s="63"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4500,7 +4533,7 @@
         <v>107</v>
       </c>
       <c r="T11" s="63"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4560,7 +4593,7 @@
         <v>107</v>
       </c>
       <c r="T12" s="63"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4618,7 +4651,7 @@
         <v>107</v>
       </c>
       <c r="T13" s="63"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -4678,7 +4711,7 @@
         <v>107</v>
       </c>
       <c r="T14" s="63"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -4738,7 +4771,7 @@
         <v>107</v>
       </c>
       <c r="T15" s="17"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -4798,7 +4831,7 @@
         <v>107</v>
       </c>
       <c r="T16" s="17"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5131,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5161,7 +5194,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5241,67 +5274,89 @@
         <v>69</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="I24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="58"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="4"/>
+      <c r="P24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="19"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="93">
         <v>20</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="56" t="s">
+      <c r="C25" s="94"/>
+      <c r="D25" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="96">
         <v>864811037235772</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56" t="s">
+      <c r="F25" s="95"/>
+      <c r="G25" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="93"/>
+      <c r="I25" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="N25" s="93">
-        <v>220000</v>
-      </c>
-      <c r="O25" s="58"/>
-      <c r="P25" s="11" t="s">
+      <c r="K25" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" s="97"/>
+      <c r="O25" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="4"/>
+      <c r="Q25" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="93" t="s">
+        <v>107</v>
+      </c>
       <c r="T25" s="17"/>
       <c r="U25" s="64" t="s">
         <v>55</v>
@@ -5329,17 +5384,35 @@
         <v>69</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="I26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="58"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
+      <c r="P26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T26" s="17"/>
       <c r="U26" s="4" t="s">
         <v>27</v>
@@ -5368,17 +5441,35 @@
         <v>69</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="I27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="58"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
+      <c r="P27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T27" s="17"/>
       <c r="U27" s="4" t="s">
         <v>35</v>
@@ -5408,7 +5499,7 @@
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>78</v>
@@ -5420,7 +5511,7 @@
         <v>101</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="58"/>
@@ -5477,7 +5568,7 @@
         <v>101</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="58"/>
@@ -5524,18 +5615,32 @@
       <c r="I30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="4"/>
+      <c r="P30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="T30" s="17"/>
       <c r="U30" s="4" t="s">
         <v>33</v>
@@ -5573,7 +5678,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,7 +5802,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5759,7 +5864,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,7 +5978,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,13 +6367,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6280,6 +6378,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6322,43 +6427,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -6403,42 +6508,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="91" t="s">
@@ -6446,15 +6551,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -6479,24 +6584,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
       <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6522,7 +6627,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="85" t="s">
+      <c r="V6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -6553,7 +6658,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="86"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -6582,7 +6687,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="76"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -6611,7 +6716,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -6640,7 +6745,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -6669,7 +6774,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6698,7 +6803,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -6729,7 +6834,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="86"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -6758,7 +6863,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="86"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -6787,7 +6892,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="86"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6816,7 +6921,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="87"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -9397,6 +9502,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -9407,16 +9522,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
